--- a/data/dates.xlsx
+++ b/data/dates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="3160" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11320" yWindow="2640" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DD_MM_YEAR" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,10 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,357 +420,361 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="3"/>
+    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="22.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="2">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -773,361 +785,412 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2"/>
+    <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="2"/>
+    <col min="5" max="5" width="21.33203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19.6640625" style="2"/>
+    <col min="11" max="16384" width="19.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>42691</v>
       </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="2">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>42691</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>42690</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>42720</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>42695</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>42695</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>42695</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>42691</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>42691</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>42691</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>42690</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>42690</v>
       </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>42690</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>42690</v>
       </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
